--- a/Gesamttabellen/Einzeltabellen/FrommannGesamt_FS_mitID.xlsx
+++ b/Gesamttabellen/Einzeltabellen/FrommannGesamt_FS_mitID.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HiWi\Akademie_Projekt\Datasets\Frommann\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HiWi\Akademie_Projekt\Gesamttabellen\Einzeltabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8560D8E0-F67E-478C-AD15-B753D76831DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2A11E7-CEC2-4357-BFC4-1DBB88EFA852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5AA9B015-1403-455E-836B-7ED67693DA07}"/>
   </bookViews>
@@ -6780,42 +6780,6 @@
     <t>4345B</t>
   </si>
   <si>
-    <t>4346A(1)</t>
-  </si>
-  <si>
-    <t>4346B(1)</t>
-  </si>
-  <si>
-    <t>4346C(1)</t>
-  </si>
-  <si>
-    <t>4346D(1)</t>
-  </si>
-  <si>
-    <t>4346E(1)</t>
-  </si>
-  <si>
-    <t>4346F(1)</t>
-  </si>
-  <si>
-    <t>4346A(2)</t>
-  </si>
-  <si>
-    <t>4346B(2)</t>
-  </si>
-  <si>
-    <t>4346C(2)</t>
-  </si>
-  <si>
-    <t>4346E(2)</t>
-  </si>
-  <si>
-    <t>4346D(2)</t>
-  </si>
-  <si>
-    <t>4346F(2)</t>
-  </si>
-  <si>
     <t>4347A</t>
   </si>
   <si>
@@ -6852,12 +6816,6 @@
     <t>4348G</t>
   </si>
   <si>
-    <t>4346(I)</t>
-  </si>
-  <si>
-    <t>4346(II)</t>
-  </si>
-  <si>
     <t>4349A</t>
   </si>
   <si>
@@ -6886,6 +6844,48 @@
   </si>
   <si>
     <t>4349J</t>
+  </si>
+  <si>
+    <t>4346(1)</t>
+  </si>
+  <si>
+    <t>4346(2)</t>
+  </si>
+  <si>
+    <t>4346(1)A</t>
+  </si>
+  <si>
+    <t>4346(1)C</t>
+  </si>
+  <si>
+    <t>4346(1)B</t>
+  </si>
+  <si>
+    <t>4346(1)D</t>
+  </si>
+  <si>
+    <t>4346(1)E</t>
+  </si>
+  <si>
+    <t>4346(1)F</t>
+  </si>
+  <si>
+    <t>4346(2)A</t>
+  </si>
+  <si>
+    <t>4346(2)B</t>
+  </si>
+  <si>
+    <t>4346(2)C</t>
+  </si>
+  <si>
+    <t>4346(2)D</t>
+  </si>
+  <si>
+    <t>4346(2)E</t>
+  </si>
+  <si>
+    <t>4346(2)F</t>
   </si>
 </sst>
 </file>
@@ -6920,7 +6920,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -7006,7 +7005,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7055,13 +7054,12 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
@@ -7389,22 +7387,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00AED28-36F7-44AC-9E56-C3D452D7691B}">
   <dimension ref="A1:AI1209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1185" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110:A1209"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A71" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="10.44140625" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" customWidth="1"/>
     <col min="8" max="8" width="4.88671875" customWidth="1"/>
     <col min="10" max="10" width="7" customWidth="1"/>
     <col min="11" max="11" width="8.109375" style="11" customWidth="1"/>
-    <col min="12" max="12" width="9" customWidth="1"/>
+    <col min="12" max="12" width="16.77734375" customWidth="1"/>
     <col min="13" max="13" width="4.33203125" customWidth="1"/>
     <col min="14" max="14" width="6.6640625" customWidth="1"/>
-    <col min="15" max="15" width="5.21875" style="12" customWidth="1"/>
-    <col min="16" max="16" width="6.6640625" style="12" customWidth="1"/>
+    <col min="15" max="15" width="10.88671875" style="12" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="12" customWidth="1"/>
     <col min="17" max="17" width="2.5546875" style="12" customWidth="1"/>
     <col min="18" max="19" width="3.33203125" style="12" customWidth="1"/>
     <col min="20" max="20" width="3.109375" style="12" customWidth="1"/>
@@ -9568,7 +9566,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:35">
+    <row r="33" spans="1:35" ht="16.2" customHeight="1">
       <c r="A33" t="s">
         <v>2220</v>
       </c>
@@ -9767,7 +9765,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:35">
+    <row r="36" spans="1:35" ht="17.399999999999999" customHeight="1">
       <c r="A36" t="s">
         <v>2222</v>
       </c>
@@ -11893,7 +11891,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="69" spans="1:35">
+    <row r="69" spans="1:35" ht="28.8">
       <c r="A69" t="s">
         <v>2246</v>
       </c>
@@ -11966,7 +11964,7 @@
       <c r="A70" s="32">
         <v>4346</v>
       </c>
-      <c r="B70" s="33" t="s">
+      <c r="B70" s="36" t="s">
         <v>35</v>
       </c>
       <c r="C70" s="32" t="s">
@@ -11981,29 +11979,29 @@
       <c r="F70" s="32">
         <v>502</v>
       </c>
-      <c r="K70" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="L70" s="33"/>
-      <c r="M70" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="N70" s="33"/>
-      <c r="O70" s="35"/>
-      <c r="P70" s="35"/>
-      <c r="Q70" s="35"/>
-      <c r="R70" s="35"/>
-      <c r="S70" s="35"/>
-      <c r="T70" s="35"/>
-      <c r="U70" s="35"/>
-      <c r="V70" s="35"/>
-      <c r="W70" s="33" t="s">
+      <c r="K70" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="L70" s="36"/>
+      <c r="M70" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="N70" s="36"/>
+      <c r="O70" s="37"/>
+      <c r="P70" s="37"/>
+      <c r="Q70" s="37"/>
+      <c r="R70" s="37"/>
+      <c r="S70" s="37"/>
+      <c r="T70" s="37"/>
+      <c r="U70" s="37"/>
+      <c r="V70" s="37"/>
+      <c r="W70" s="36" t="s">
         <v>1819</v>
       </c>
-      <c r="X70" s="33" t="s">
+      <c r="X70" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="Y70" s="33" t="s">
+      <c r="Y70" s="36" t="s">
         <v>35</v>
       </c>
       <c r="AB70" s="32" t="s">
@@ -12018,13 +12016,13 @@
       <c r="AG70" s="32" t="s">
         <v>468</v>
       </c>
-      <c r="AH70" s="36" t="s">
+      <c r="AH70" s="32" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="71" spans="1:35" s="32" customFormat="1">
       <c r="A71" s="32" t="s">
-        <v>2271</v>
+        <v>2269</v>
       </c>
       <c r="B71" s="32" t="s">
         <v>35</v>
@@ -12047,7 +12045,7 @@
       <c r="I71" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="K71" s="34" t="s">
+      <c r="K71" s="35" t="s">
         <v>37</v>
       </c>
       <c r="L71" s="32" t="s">
@@ -12059,18 +12057,18 @@
       <c r="N71" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="O71" s="37" t="s">
+      <c r="O71" s="33" t="s">
         <v>2025</v>
       </c>
-      <c r="P71" s="37" t="s">
+      <c r="P71" s="33" t="s">
         <v>2026</v>
       </c>
-      <c r="Q71" s="37"/>
-      <c r="R71" s="37"/>
-      <c r="S71" s="37"/>
-      <c r="T71" s="37"/>
-      <c r="U71" s="37"/>
-      <c r="V71" s="37"/>
+      <c r="Q71" s="33"/>
+      <c r="R71" s="33"/>
+      <c r="S71" s="33"/>
+      <c r="T71" s="33"/>
+      <c r="U71" s="33"/>
+      <c r="V71" s="33"/>
       <c r="W71" s="32" t="s">
         <v>1827</v>
       </c>
@@ -12092,7 +12090,7 @@
       <c r="AG71" s="32" t="s">
         <v>468</v>
       </c>
-      <c r="AH71" s="36" t="s">
+      <c r="AH71" s="32" t="s">
         <v>38</v>
       </c>
       <c r="AI71" s="32" t="s">
@@ -12101,7 +12099,7 @@
     </row>
     <row r="72" spans="1:35" s="32" customFormat="1">
       <c r="A72" s="32" t="s">
-        <v>2247</v>
+        <v>2271</v>
       </c>
       <c r="B72" s="32" t="s">
         <v>35</v>
@@ -12118,7 +12116,7 @@
       <c r="F72" s="32">
         <v>502</v>
       </c>
-      <c r="K72" s="34" t="s">
+      <c r="K72" s="35" t="s">
         <v>38</v>
       </c>
       <c r="L72" s="32" t="s">
@@ -12130,18 +12128,18 @@
       <c r="N72" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="O72" s="37" t="s">
+      <c r="O72" s="33" t="s">
         <v>2025</v>
       </c>
-      <c r="P72" s="37" t="s">
+      <c r="P72" s="33" t="s">
         <v>2026</v>
       </c>
-      <c r="Q72" s="37"/>
-      <c r="R72" s="37"/>
-      <c r="S72" s="37"/>
-      <c r="T72" s="37"/>
-      <c r="U72" s="37"/>
-      <c r="V72" s="37"/>
+      <c r="Q72" s="33"/>
+      <c r="R72" s="33"/>
+      <c r="S72" s="33"/>
+      <c r="T72" s="33"/>
+      <c r="U72" s="33"/>
+      <c r="V72" s="33"/>
       <c r="W72" s="32" t="s">
         <v>699</v>
       </c>
@@ -12163,7 +12161,7 @@
       <c r="AG72" s="32" t="s">
         <v>468</v>
       </c>
-      <c r="AH72" s="36" t="s">
+      <c r="AH72" s="32" t="s">
         <v>38</v>
       </c>
       <c r="AI72" s="32" t="s">
@@ -12172,7 +12170,7 @@
     </row>
     <row r="73" spans="1:35" s="32" customFormat="1">
       <c r="A73" s="32" t="s">
-        <v>2248</v>
+        <v>2273</v>
       </c>
       <c r="B73" s="32" t="s">
         <v>35</v>
@@ -12189,7 +12187,7 @@
       <c r="F73" s="32">
         <v>502</v>
       </c>
-      <c r="K73" s="34" t="s">
+      <c r="K73" s="35" t="s">
         <v>38</v>
       </c>
       <c r="L73" s="32" t="s">
@@ -12201,18 +12199,18 @@
       <c r="N73" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="O73" s="37" t="s">
+      <c r="O73" s="33" t="s">
         <v>2025</v>
       </c>
-      <c r="P73" s="37" t="s">
+      <c r="P73" s="33" t="s">
         <v>2026</v>
       </c>
-      <c r="Q73" s="37"/>
-      <c r="R73" s="37"/>
-      <c r="S73" s="37"/>
-      <c r="T73" s="37"/>
-      <c r="U73" s="37"/>
-      <c r="V73" s="37"/>
+      <c r="Q73" s="33"/>
+      <c r="R73" s="33"/>
+      <c r="S73" s="33"/>
+      <c r="T73" s="33"/>
+      <c r="U73" s="33"/>
+      <c r="V73" s="33"/>
       <c r="W73" s="32" t="s">
         <v>982</v>
       </c>
@@ -12234,7 +12232,7 @@
       <c r="AG73" s="32" t="s">
         <v>468</v>
       </c>
-      <c r="AH73" s="36" t="s">
+      <c r="AH73" s="32" t="s">
         <v>38</v>
       </c>
       <c r="AI73" s="32" t="s">
@@ -12243,7 +12241,7 @@
     </row>
     <row r="74" spans="1:35" s="32" customFormat="1">
       <c r="A74" s="32" t="s">
-        <v>2249</v>
+        <v>2272</v>
       </c>
       <c r="B74" s="32" t="s">
         <v>35</v>
@@ -12260,7 +12258,7 @@
       <c r="F74" s="32">
         <v>502</v>
       </c>
-      <c r="K74" s="34" t="s">
+      <c r="K74" s="35" t="s">
         <v>38</v>
       </c>
       <c r="L74" s="32" t="s">
@@ -12272,18 +12270,18 @@
       <c r="N74" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="O74" s="37" t="s">
+      <c r="O74" s="33" t="s">
         <v>2025</v>
       </c>
-      <c r="P74" s="37" t="s">
+      <c r="P74" s="33" t="s">
         <v>2026</v>
       </c>
-      <c r="Q74" s="37"/>
-      <c r="R74" s="37"/>
-      <c r="S74" s="37"/>
-      <c r="T74" s="37"/>
-      <c r="U74" s="37"/>
-      <c r="V74" s="37"/>
+      <c r="Q74" s="33"/>
+      <c r="R74" s="33"/>
+      <c r="S74" s="33"/>
+      <c r="T74" s="33"/>
+      <c r="U74" s="33"/>
+      <c r="V74" s="33"/>
       <c r="W74" s="32" t="s">
         <v>1709</v>
       </c>
@@ -12305,7 +12303,7 @@
       <c r="AG74" s="32" t="s">
         <v>468</v>
       </c>
-      <c r="AH74" s="36" t="s">
+      <c r="AH74" s="32" t="s">
         <v>38</v>
       </c>
       <c r="AI74" s="32" t="s">
@@ -12314,7 +12312,7 @@
     </row>
     <row r="75" spans="1:35" s="32" customFormat="1">
       <c r="A75" s="32" t="s">
-        <v>2250</v>
+        <v>2274</v>
       </c>
       <c r="B75" s="32" t="s">
         <v>35</v>
@@ -12331,7 +12329,7 @@
       <c r="F75" s="32">
         <v>502</v>
       </c>
-      <c r="K75" s="34" t="s">
+      <c r="K75" s="35" t="s">
         <v>38</v>
       </c>
       <c r="L75" s="32" t="s">
@@ -12343,18 +12341,18 @@
       <c r="N75" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="O75" s="37" t="s">
+      <c r="O75" s="33" t="s">
         <v>2025</v>
       </c>
-      <c r="P75" s="37" t="s">
+      <c r="P75" s="33" t="s">
         <v>2026</v>
       </c>
-      <c r="Q75" s="37"/>
-      <c r="R75" s="37"/>
-      <c r="S75" s="37"/>
-      <c r="T75" s="37"/>
-      <c r="U75" s="37"/>
-      <c r="V75" s="37"/>
+      <c r="Q75" s="33"/>
+      <c r="R75" s="33"/>
+      <c r="S75" s="33"/>
+      <c r="T75" s="33"/>
+      <c r="U75" s="33"/>
+      <c r="V75" s="33"/>
       <c r="W75" s="32" t="s">
         <v>732</v>
       </c>
@@ -12376,7 +12374,7 @@
       <c r="AG75" s="32" t="s">
         <v>468</v>
       </c>
-      <c r="AH75" s="36" t="s">
+      <c r="AH75" s="32" t="s">
         <v>38</v>
       </c>
       <c r="AI75" s="32" t="s">
@@ -12384,8 +12382,8 @@
       </c>
     </row>
     <row r="76" spans="1:35" s="32" customFormat="1">
-      <c r="A76" s="38" t="s">
-        <v>2251</v>
+      <c r="A76" s="34" t="s">
+        <v>2275</v>
       </c>
       <c r="B76" s="32" t="s">
         <v>35</v>
@@ -12402,7 +12400,7 @@
       <c r="F76" s="32">
         <v>502</v>
       </c>
-      <c r="K76" s="34" t="s">
+      <c r="K76" s="35" t="s">
         <v>38</v>
       </c>
       <c r="L76" s="32" t="s">
@@ -12414,18 +12412,18 @@
       <c r="N76" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="O76" s="37" t="s">
+      <c r="O76" s="33" t="s">
         <v>2025</v>
       </c>
-      <c r="P76" s="37" t="s">
+      <c r="P76" s="33" t="s">
         <v>2026</v>
       </c>
-      <c r="Q76" s="37"/>
-      <c r="R76" s="37"/>
-      <c r="S76" s="37"/>
-      <c r="T76" s="37"/>
-      <c r="U76" s="37"/>
-      <c r="V76" s="37"/>
+      <c r="Q76" s="33"/>
+      <c r="R76" s="33"/>
+      <c r="S76" s="33"/>
+      <c r="T76" s="33"/>
+      <c r="U76" s="33"/>
+      <c r="V76" s="33"/>
       <c r="W76" s="32" t="s">
         <v>731</v>
       </c>
@@ -12447,7 +12445,7 @@
       <c r="AG76" s="32" t="s">
         <v>468</v>
       </c>
-      <c r="AH76" s="36" t="s">
+      <c r="AH76" s="32" t="s">
         <v>38</v>
       </c>
       <c r="AI76" s="32" t="s">
@@ -12456,7 +12454,7 @@
     </row>
     <row r="77" spans="1:35" s="32" customFormat="1">
       <c r="A77" s="32" t="s">
-        <v>2252</v>
+        <v>2276</v>
       </c>
       <c r="B77" s="32" t="s">
         <v>35</v>
@@ -12473,7 +12471,7 @@
       <c r="F77" s="32">
         <v>502</v>
       </c>
-      <c r="K77" s="34" t="s">
+      <c r="K77" s="35" t="s">
         <v>38</v>
       </c>
       <c r="L77" s="32" t="s">
@@ -12485,18 +12483,18 @@
       <c r="N77" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="O77" s="37" t="s">
+      <c r="O77" s="33" t="s">
         <v>2025</v>
       </c>
-      <c r="P77" s="37" t="s">
+      <c r="P77" s="33" t="s">
         <v>2026</v>
       </c>
-      <c r="Q77" s="37"/>
-      <c r="R77" s="37"/>
-      <c r="S77" s="37"/>
-      <c r="T77" s="37"/>
-      <c r="U77" s="37"/>
-      <c r="V77" s="37"/>
+      <c r="Q77" s="33"/>
+      <c r="R77" s="33"/>
+      <c r="S77" s="33"/>
+      <c r="T77" s="33"/>
+      <c r="U77" s="33"/>
+      <c r="V77" s="33"/>
       <c r="W77" s="32" t="s">
         <v>2022</v>
       </c>
@@ -12518,7 +12516,7 @@
       <c r="AG77" s="32" t="s">
         <v>468</v>
       </c>
-      <c r="AH77" s="36" t="s">
+      <c r="AH77" s="32" t="s">
         <v>38</v>
       </c>
       <c r="AI77" s="32" t="s">
@@ -12527,9 +12525,9 @@
     </row>
     <row r="78" spans="1:35" s="32" customFormat="1">
       <c r="A78" s="32" t="s">
-        <v>2272</v>
-      </c>
-      <c r="B78" s="32" t="s">
+        <v>2270</v>
+      </c>
+      <c r="B78" s="38" t="s">
         <v>35</v>
       </c>
       <c r="C78" s="32" t="s">
@@ -12550,35 +12548,35 @@
       <c r="I78" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="K78" s="34" t="s">
+      <c r="K78" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="L78" s="39" t="s">
+      <c r="L78" s="38" t="s">
         <v>1052</v>
       </c>
-      <c r="M78" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="N78" s="39"/>
-      <c r="O78" s="40" t="s">
+      <c r="M78" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="N78" s="38"/>
+      <c r="O78" s="39" t="s">
         <v>1219</v>
       </c>
-      <c r="P78" s="40" t="s">
+      <c r="P78" s="39" t="s">
         <v>1219</v>
       </c>
-      <c r="Q78" s="40"/>
-      <c r="R78" s="40"/>
-      <c r="S78" s="40"/>
-      <c r="T78" s="40"/>
-      <c r="U78" s="40"/>
-      <c r="V78" s="40"/>
-      <c r="W78" s="39" t="s">
+      <c r="Q78" s="39"/>
+      <c r="R78" s="39"/>
+      <c r="S78" s="39"/>
+      <c r="T78" s="39"/>
+      <c r="U78" s="39"/>
+      <c r="V78" s="39"/>
+      <c r="W78" s="38" t="s">
         <v>1117</v>
       </c>
-      <c r="X78" s="32" t="s">
+      <c r="X78" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="Y78" s="32" t="s">
+      <c r="Y78" s="38" t="s">
         <v>35</v>
       </c>
       <c r="AB78" s="32" t="s">
@@ -12593,15 +12591,15 @@
       <c r="AG78" s="32" t="s">
         <v>468</v>
       </c>
-      <c r="AH78" s="36" t="s">
+      <c r="AH78" s="32" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="79" spans="1:35" s="32" customFormat="1">
       <c r="A79" s="32" t="s">
-        <v>2253</v>
-      </c>
-      <c r="B79" s="32" t="s">
+        <v>2277</v>
+      </c>
+      <c r="B79" s="38" t="s">
         <v>35</v>
       </c>
       <c r="C79" s="32" t="s">
@@ -12616,35 +12614,35 @@
       <c r="F79" s="32">
         <v>502</v>
       </c>
-      <c r="K79" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="L79" s="39" t="s">
+      <c r="K79" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="L79" s="38" t="s">
         <v>1052</v>
       </c>
-      <c r="M79" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="N79" s="39"/>
-      <c r="O79" s="40" t="s">
+      <c r="M79" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="N79" s="38"/>
+      <c r="O79" s="39" t="s">
         <v>1219</v>
       </c>
-      <c r="P79" s="40" t="s">
+      <c r="P79" s="39" t="s">
         <v>1219</v>
       </c>
-      <c r="Q79" s="40"/>
-      <c r="R79" s="40"/>
-      <c r="S79" s="40"/>
-      <c r="T79" s="40"/>
-      <c r="U79" s="40"/>
-      <c r="V79" s="40"/>
-      <c r="W79" s="39" t="s">
+      <c r="Q79" s="39"/>
+      <c r="R79" s="39"/>
+      <c r="S79" s="39"/>
+      <c r="T79" s="39"/>
+      <c r="U79" s="39"/>
+      <c r="V79" s="39"/>
+      <c r="W79" s="38" t="s">
         <v>699</v>
       </c>
-      <c r="X79" s="32" t="s">
+      <c r="X79" s="38" t="s">
         <v>410</v>
       </c>
-      <c r="Y79" s="32" t="s">
+      <c r="Y79" s="38" t="s">
         <v>35</v>
       </c>
       <c r="AB79" s="32" t="s">
@@ -12659,15 +12657,15 @@
       <c r="AG79" s="32" t="s">
         <v>468</v>
       </c>
-      <c r="AH79" s="36" t="s">
+      <c r="AH79" s="32" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="80" spans="1:35" s="32" customFormat="1">
       <c r="A80" s="32" t="s">
-        <v>2254</v>
-      </c>
-      <c r="B80" s="32" t="s">
+        <v>2278</v>
+      </c>
+      <c r="B80" s="38" t="s">
         <v>35</v>
       </c>
       <c r="C80" s="32" t="s">
@@ -12682,35 +12680,35 @@
       <c r="F80" s="32">
         <v>502</v>
       </c>
-      <c r="K80" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="L80" s="39" t="s">
+      <c r="K80" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="L80" s="38" t="s">
         <v>1052</v>
       </c>
-      <c r="M80" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="N80" s="39"/>
-      <c r="O80" s="40" t="s">
+      <c r="M80" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="N80" s="38"/>
+      <c r="O80" s="39" t="s">
         <v>1219</v>
       </c>
-      <c r="P80" s="40" t="s">
+      <c r="P80" s="39" t="s">
         <v>1219</v>
       </c>
-      <c r="Q80" s="40"/>
-      <c r="R80" s="40"/>
-      <c r="S80" s="40"/>
-      <c r="T80" s="40"/>
-      <c r="U80" s="40"/>
-      <c r="V80" s="40"/>
-      <c r="W80" s="39" t="s">
+      <c r="Q80" s="39"/>
+      <c r="R80" s="39"/>
+      <c r="S80" s="39"/>
+      <c r="T80" s="39"/>
+      <c r="U80" s="39"/>
+      <c r="V80" s="39"/>
+      <c r="W80" s="38" t="s">
         <v>982</v>
       </c>
-      <c r="X80" s="32" t="s">
+      <c r="X80" s="38" t="s">
         <v>410</v>
       </c>
-      <c r="Y80" s="32" t="s">
+      <c r="Y80" s="38" t="s">
         <v>35</v>
       </c>
       <c r="AB80" s="32" t="s">
@@ -12725,15 +12723,15 @@
       <c r="AG80" s="32" t="s">
         <v>468</v>
       </c>
-      <c r="AH80" s="36" t="s">
+      <c r="AH80" s="32" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="81" spans="1:35" s="32" customFormat="1">
       <c r="A81" s="32" t="s">
-        <v>2255</v>
-      </c>
-      <c r="B81" s="32" t="s">
+        <v>2279</v>
+      </c>
+      <c r="B81" s="38" t="s">
         <v>35</v>
       </c>
       <c r="C81" s="32" t="s">
@@ -12748,35 +12746,35 @@
       <c r="F81" s="32">
         <v>502</v>
       </c>
-      <c r="K81" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="L81" s="39" t="s">
+      <c r="K81" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="L81" s="38" t="s">
         <v>1052</v>
       </c>
-      <c r="M81" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="N81" s="39"/>
-      <c r="O81" s="40" t="s">
+      <c r="M81" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="N81" s="38"/>
+      <c r="O81" s="39" t="s">
         <v>1219</v>
       </c>
-      <c r="P81" s="40" t="s">
+      <c r="P81" s="39" t="s">
         <v>1219</v>
       </c>
-      <c r="Q81" s="40"/>
-      <c r="R81" s="40"/>
-      <c r="S81" s="40"/>
-      <c r="T81" s="40"/>
-      <c r="U81" s="40"/>
-      <c r="V81" s="40"/>
-      <c r="W81" s="39" t="s">
+      <c r="Q81" s="39"/>
+      <c r="R81" s="39"/>
+      <c r="S81" s="39"/>
+      <c r="T81" s="39"/>
+      <c r="U81" s="39"/>
+      <c r="V81" s="39"/>
+      <c r="W81" s="38" t="s">
         <v>1709</v>
       </c>
-      <c r="X81" s="32" t="s">
+      <c r="X81" s="38" t="s">
         <v>410</v>
       </c>
-      <c r="Y81" s="32" t="s">
+      <c r="Y81" s="38" t="s">
         <v>35</v>
       </c>
       <c r="AB81" s="32" t="s">
@@ -12791,15 +12789,15 @@
       <c r="AG81" s="32" t="s">
         <v>468</v>
       </c>
-      <c r="AH81" s="36" t="s">
+      <c r="AH81" s="32" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="82" spans="1:35" s="32" customFormat="1">
       <c r="A82" s="32" t="s">
-        <v>2257</v>
-      </c>
-      <c r="B82" s="32" t="s">
+        <v>2280</v>
+      </c>
+      <c r="B82" s="38" t="s">
         <v>35</v>
       </c>
       <c r="C82" s="32" t="s">
@@ -12814,35 +12812,35 @@
       <c r="F82" s="32">
         <v>502</v>
       </c>
-      <c r="K82" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="L82" s="39" t="s">
+      <c r="K82" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="L82" s="38" t="s">
         <v>1052</v>
       </c>
-      <c r="M82" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="N82" s="39"/>
-      <c r="O82" s="40" t="s">
+      <c r="M82" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="N82" s="38"/>
+      <c r="O82" s="39" t="s">
         <v>1219</v>
       </c>
-      <c r="P82" s="40" t="s">
+      <c r="P82" s="39" t="s">
         <v>1219</v>
       </c>
-      <c r="Q82" s="40"/>
-      <c r="R82" s="40"/>
-      <c r="S82" s="40"/>
-      <c r="T82" s="40"/>
-      <c r="U82" s="40"/>
-      <c r="V82" s="40"/>
-      <c r="W82" s="39" t="s">
+      <c r="Q82" s="39"/>
+      <c r="R82" s="39"/>
+      <c r="S82" s="39"/>
+      <c r="T82" s="39"/>
+      <c r="U82" s="39"/>
+      <c r="V82" s="39"/>
+      <c r="W82" s="38" t="s">
         <v>732</v>
       </c>
-      <c r="X82" s="32" t="s">
+      <c r="X82" s="38" t="s">
         <v>410</v>
       </c>
-      <c r="Y82" s="32" t="s">
+      <c r="Y82" s="38" t="s">
         <v>35</v>
       </c>
       <c r="AB82" s="32" t="s">
@@ -12857,15 +12855,15 @@
       <c r="AG82" s="32" t="s">
         <v>468</v>
       </c>
-      <c r="AH82" s="36" t="s">
+      <c r="AH82" s="32" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="83" spans="1:35" s="32" customFormat="1">
-      <c r="A83" s="38" t="s">
-        <v>2256</v>
-      </c>
-      <c r="B83" s="32" t="s">
+      <c r="A83" s="34" t="s">
+        <v>2281</v>
+      </c>
+      <c r="B83" s="38" t="s">
         <v>35</v>
       </c>
       <c r="C83" s="32" t="s">
@@ -12880,35 +12878,35 @@
       <c r="F83" s="32">
         <v>502</v>
       </c>
-      <c r="K83" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="L83" s="39" t="s">
+      <c r="K83" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="L83" s="38" t="s">
         <v>1052</v>
       </c>
-      <c r="M83" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="N83" s="39"/>
-      <c r="O83" s="40" t="s">
+      <c r="M83" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="N83" s="38"/>
+      <c r="O83" s="39" t="s">
         <v>1219</v>
       </c>
-      <c r="P83" s="40" t="s">
+      <c r="P83" s="39" t="s">
         <v>1219</v>
       </c>
-      <c r="Q83" s="40"/>
-      <c r="R83" s="40"/>
-      <c r="S83" s="40"/>
-      <c r="T83" s="40"/>
-      <c r="U83" s="40"/>
-      <c r="V83" s="40"/>
-      <c r="W83" s="39" t="s">
+      <c r="Q83" s="39"/>
+      <c r="R83" s="39"/>
+      <c r="S83" s="39"/>
+      <c r="T83" s="39"/>
+      <c r="U83" s="39"/>
+      <c r="V83" s="39"/>
+      <c r="W83" s="38" t="s">
         <v>731</v>
       </c>
-      <c r="X83" s="32" t="s">
+      <c r="X83" s="38" t="s">
         <v>410</v>
       </c>
-      <c r="Y83" s="32" t="s">
+      <c r="Y83" s="38" t="s">
         <v>35</v>
       </c>
       <c r="AB83" s="32" t="s">
@@ -12923,15 +12921,15 @@
       <c r="AG83" s="32" t="s">
         <v>468</v>
       </c>
-      <c r="AH83" s="36" t="s">
+      <c r="AH83" s="32" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="84" spans="1:35" s="32" customFormat="1">
-      <c r="A84" s="38" t="s">
-        <v>2258</v>
-      </c>
-      <c r="B84" s="32" t="s">
+      <c r="A84" s="34" t="s">
+        <v>2282</v>
+      </c>
+      <c r="B84" s="38" t="s">
         <v>35</v>
       </c>
       <c r="C84" s="32" t="s">
@@ -12946,35 +12944,35 @@
       <c r="F84" s="32">
         <v>502</v>
       </c>
-      <c r="K84" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="L84" s="39" t="s">
+      <c r="K84" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="L84" s="38" t="s">
         <v>1052</v>
       </c>
-      <c r="M84" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="N84" s="39"/>
-      <c r="O84" s="40" t="s">
+      <c r="M84" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="N84" s="38"/>
+      <c r="O84" s="39" t="s">
         <v>1219</v>
       </c>
-      <c r="P84" s="40" t="s">
+      <c r="P84" s="39" t="s">
         <v>1219</v>
       </c>
-      <c r="Q84" s="40"/>
-      <c r="R84" s="40"/>
-      <c r="S84" s="40"/>
-      <c r="T84" s="40"/>
-      <c r="U84" s="40"/>
-      <c r="V84" s="40"/>
-      <c r="W84" s="39" t="s">
+      <c r="Q84" s="39"/>
+      <c r="R84" s="39"/>
+      <c r="S84" s="39"/>
+      <c r="T84" s="39"/>
+      <c r="U84" s="39"/>
+      <c r="V84" s="39"/>
+      <c r="W84" s="38" t="s">
         <v>2022</v>
       </c>
-      <c r="X84" s="32" t="s">
+      <c r="X84" s="38" t="s">
         <v>410</v>
       </c>
-      <c r="Y84" s="32" t="s">
+      <c r="Y84" s="38" t="s">
         <v>35</v>
       </c>
       <c r="AB84" s="32" t="s">
@@ -12989,7 +12987,7 @@
       <c r="AG84" s="32" t="s">
         <v>468</v>
       </c>
-      <c r="AH84" s="36" t="s">
+      <c r="AH84" s="32" t="s">
         <v>38</v>
       </c>
     </row>
@@ -13051,7 +13049,7 @@
     </row>
     <row r="86" spans="1:35">
       <c r="A86" t="s">
-        <v>2259</v>
+        <v>2247</v>
       </c>
       <c r="B86" t="s">
         <v>35</v>
@@ -13113,9 +13111,9 @@
     </row>
     <row r="87" spans="1:35">
       <c r="A87" t="s">
-        <v>2260</v>
-      </c>
-      <c r="B87" t="s">
+        <v>2248</v>
+      </c>
+      <c r="B87" s="16" t="s">
         <v>35</v>
       </c>
       <c r="C87" t="s">
@@ -13177,7 +13175,7 @@
     </row>
     <row r="88" spans="1:35">
       <c r="A88" t="s">
-        <v>2261</v>
+        <v>2249</v>
       </c>
       <c r="B88" t="s">
         <v>35</v>
@@ -13245,7 +13243,7 @@
     </row>
     <row r="89" spans="1:35">
       <c r="A89" t="s">
-        <v>2262</v>
+        <v>2250</v>
       </c>
       <c r="B89" t="s">
         <v>35</v>
@@ -13313,7 +13311,7 @@
     </row>
     <row r="90" spans="1:35">
       <c r="A90" t="s">
-        <v>2263</v>
+        <v>2251</v>
       </c>
       <c r="B90" t="s">
         <v>35</v>
@@ -13437,7 +13435,7 @@
     </row>
     <row r="92" spans="1:35">
       <c r="A92" t="s">
-        <v>2264</v>
+        <v>2252</v>
       </c>
       <c r="B92" t="s">
         <v>35</v>
@@ -13502,7 +13500,7 @@
     </row>
     <row r="93" spans="1:35">
       <c r="A93" t="s">
-        <v>2265</v>
+        <v>2253</v>
       </c>
       <c r="B93" t="s">
         <v>35</v>
@@ -13567,7 +13565,7 @@
     </row>
     <row r="94" spans="1:35">
       <c r="A94" t="s">
-        <v>2266</v>
+        <v>2254</v>
       </c>
       <c r="B94" t="s">
         <v>35</v>
@@ -13629,7 +13627,7 @@
     </row>
     <row r="95" spans="1:35">
       <c r="A95" t="s">
-        <v>2267</v>
+        <v>2255</v>
       </c>
       <c r="B95" t="s">
         <v>35</v>
@@ -13694,7 +13692,7 @@
     </row>
     <row r="96" spans="1:35">
       <c r="A96" t="s">
-        <v>2268</v>
+        <v>2256</v>
       </c>
       <c r="B96" t="s">
         <v>35</v>
@@ -13762,7 +13760,7 @@
     </row>
     <row r="97" spans="1:35">
       <c r="A97" t="s">
-        <v>2269</v>
+        <v>2257</v>
       </c>
       <c r="B97" t="s">
         <v>35</v>
@@ -13824,7 +13822,7 @@
     </row>
     <row r="98" spans="1:35">
       <c r="A98" t="s">
-        <v>2270</v>
+        <v>2258</v>
       </c>
       <c r="B98" t="s">
         <v>35</v>
@@ -13943,9 +13941,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="100" spans="1:35">
+    <row r="100" spans="1:35" ht="43.2">
       <c r="A100" t="s">
-        <v>2273</v>
+        <v>2259</v>
       </c>
       <c r="B100" t="s">
         <v>35</v>
@@ -14007,7 +14005,7 @@
     </row>
     <row r="101" spans="1:35">
       <c r="A101" t="s">
-        <v>2274</v>
+        <v>2260</v>
       </c>
       <c r="B101" t="s">
         <v>35</v>
@@ -14069,7 +14067,7 @@
     </row>
     <row r="102" spans="1:35">
       <c r="A102" t="s">
-        <v>2275</v>
+        <v>2261</v>
       </c>
       <c r="B102" t="s">
         <v>35</v>
@@ -14131,7 +14129,7 @@
     </row>
     <row r="103" spans="1:35">
       <c r="A103" t="s">
-        <v>2276</v>
+        <v>2262</v>
       </c>
       <c r="B103" t="s">
         <v>35</v>
@@ -14193,7 +14191,7 @@
     </row>
     <row r="104" spans="1:35">
       <c r="A104" t="s">
-        <v>2277</v>
+        <v>2263</v>
       </c>
       <c r="B104" t="s">
         <v>35</v>
@@ -14258,7 +14256,7 @@
     </row>
     <row r="105" spans="1:35">
       <c r="A105" t="s">
-        <v>2278</v>
+        <v>2264</v>
       </c>
       <c r="B105" t="s">
         <v>35</v>
@@ -14320,7 +14318,7 @@
     </row>
     <row r="106" spans="1:35">
       <c r="A106" t="s">
-        <v>2279</v>
+        <v>2265</v>
       </c>
       <c r="B106" t="s">
         <v>35</v>
@@ -14388,7 +14386,7 @@
     </row>
     <row r="107" spans="1:35">
       <c r="A107" t="s">
-        <v>2280</v>
+        <v>2266</v>
       </c>
       <c r="B107" t="s">
         <v>35</v>
@@ -14456,7 +14454,7 @@
     </row>
     <row r="108" spans="1:35">
       <c r="A108" t="s">
-        <v>2281</v>
+        <v>2267</v>
       </c>
       <c r="B108" t="s">
         <v>35</v>
@@ -14524,7 +14522,7 @@
     </row>
     <row r="109" spans="1:35">
       <c r="A109" t="s">
-        <v>2282</v>
+        <v>2268</v>
       </c>
       <c r="B109" t="s">
         <v>35</v>
@@ -18166,7 +18164,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="170" spans="1:35">
+    <row r="170" spans="1:35" ht="17.399999999999999" customHeight="1">
       <c r="A170">
         <v>4410</v>
       </c>
@@ -18231,7 +18229,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="171" spans="1:35">
+    <row r="171" spans="1:35" ht="18" customHeight="1">
       <c r="A171">
         <v>4411</v>
       </c>
@@ -18290,7 +18288,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="172" spans="1:35">
+    <row r="172" spans="1:35" ht="14.4" customHeight="1">
       <c r="A172">
         <v>4412</v>
       </c>
@@ -18414,7 +18412,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="174" spans="1:35">
+    <row r="174" spans="1:35" ht="16.2" customHeight="1">
       <c r="A174">
         <v>4414</v>
       </c>
@@ -18482,7 +18480,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="175" spans="1:35">
+    <row r="175" spans="1:35" ht="15.6" customHeight="1">
       <c r="A175">
         <v>4415</v>
       </c>
@@ -20809,7 +20807,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="215" spans="1:35">
+    <row r="215" spans="1:35" ht="15" customHeight="1">
       <c r="A215">
         <v>4455</v>
       </c>
@@ -20877,7 +20875,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="216" spans="1:35">
+    <row r="216" spans="1:35" ht="13.8" customHeight="1">
       <c r="A216">
         <v>4456</v>
       </c>
@@ -20936,7 +20934,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="217" spans="1:35">
+    <row r="217" spans="1:35" ht="13.8" customHeight="1">
       <c r="A217">
         <v>4457</v>
       </c>
@@ -20995,7 +20993,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="218" spans="1:35">
+    <row r="218" spans="1:35" ht="13.2" customHeight="1">
       <c r="A218">
         <v>4458</v>
       </c>
@@ -23628,7 +23626,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="264" spans="1:35">
+    <row r="264" spans="1:35" ht="16.8" customHeight="1">
       <c r="A264">
         <v>4504</v>
       </c>
@@ -23690,7 +23688,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="265" spans="1:35">
+    <row r="265" spans="1:35" ht="16.8" customHeight="1">
       <c r="A265">
         <v>4505</v>
       </c>
@@ -23749,7 +23747,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="266" spans="1:35">
+    <row r="266" spans="1:35" ht="16.8" customHeight="1">
       <c r="A266">
         <v>4506</v>
       </c>
@@ -25871,7 +25869,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="301" spans="1:35">
+    <row r="301" spans="1:35" ht="43.2">
       <c r="A301">
         <v>4541</v>
       </c>
@@ -25939,7 +25937,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="302" spans="1:35">
+    <row r="302" spans="1:35" ht="43.2">
       <c r="A302">
         <v>4542</v>
       </c>
@@ -26007,7 +26005,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="303" spans="1:35">
+    <row r="303" spans="1:35" ht="43.2">
       <c r="A303">
         <v>4543</v>
       </c>
@@ -26075,7 +26073,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="304" spans="1:35">
+    <row r="304" spans="1:35" ht="43.2">
       <c r="A304">
         <v>4544</v>
       </c>
@@ -26143,7 +26141,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="305" spans="1:35">
+    <row r="305" spans="1:35" ht="43.2">
       <c r="A305">
         <v>4545</v>
       </c>
@@ -26211,7 +26209,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="306" spans="1:35">
+    <row r="306" spans="1:35" ht="43.2">
       <c r="A306">
         <v>4546</v>
       </c>
@@ -28842,7 +28840,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="348" spans="1:34">
+    <row r="348" spans="1:34" ht="28.8">
       <c r="A348">
         <v>4588</v>
       </c>
@@ -28910,7 +28908,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="349" spans="1:34">
+    <row r="349" spans="1:34" ht="28.8">
       <c r="A349">
         <v>4589</v>
       </c>
@@ -28969,7 +28967,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="350" spans="1:34">
+    <row r="350" spans="1:34" ht="28.8">
       <c r="A350">
         <v>4590</v>
       </c>
@@ -38824,7 +38822,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="515" spans="1:35">
+    <row r="515" spans="1:35" ht="43.2">
       <c r="A515">
         <v>4755</v>
       </c>
@@ -63355,7 +63353,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="902" spans="1:35">
+    <row r="902" spans="1:35" ht="28.8">
       <c r="A902">
         <v>5142</v>
       </c>
@@ -63491,7 +63489,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="904" spans="1:35">
+    <row r="904" spans="1:35" ht="43.2">
       <c r="A904">
         <v>5144</v>
       </c>
@@ -66497,7 +66495,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="952" spans="1:35">
+    <row r="952" spans="1:35" ht="43.2">
       <c r="A952">
         <v>5192</v>
       </c>
@@ -66562,7 +66560,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="953" spans="1:35">
+    <row r="953" spans="1:35" ht="43.2">
       <c r="A953">
         <v>5193</v>
       </c>
@@ -66627,7 +66625,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="954" spans="1:35">
+    <row r="954" spans="1:35" ht="43.2">
       <c r="A954">
         <v>5194</v>
       </c>
@@ -66692,7 +66690,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="955" spans="1:35">
+    <row r="955" spans="1:35" ht="43.2">
       <c r="A955">
         <v>5195</v>
       </c>
@@ -66757,7 +66755,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="956" spans="1:35">
+    <row r="956" spans="1:35" ht="43.2">
       <c r="A956">
         <v>5196</v>
       </c>
@@ -66822,7 +66820,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="957" spans="1:35">
+    <row r="957" spans="1:35" ht="43.2">
       <c r="A957">
         <v>5197</v>
       </c>
@@ -66887,7 +66885,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="958" spans="1:35">
+    <row r="958" spans="1:35" ht="43.2">
       <c r="A958">
         <v>5198</v>
       </c>
@@ -66952,7 +66950,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="959" spans="1:35">
+    <row r="959" spans="1:35" ht="43.2">
       <c r="A959">
         <v>5199</v>
       </c>
@@ -67017,7 +67015,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="960" spans="1:35">
+    <row r="960" spans="1:35" ht="43.2">
       <c r="A960">
         <v>5200</v>
       </c>
@@ -67082,7 +67080,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="961" spans="1:35">
+    <row r="961" spans="1:35" ht="43.2">
       <c r="A961">
         <v>5201</v>
       </c>
@@ -67147,7 +67145,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="962" spans="1:35">
+    <row r="962" spans="1:35" ht="43.2">
       <c r="A962">
         <v>5202</v>
       </c>
@@ -67212,7 +67210,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="963" spans="1:35">
+    <row r="963" spans="1:35" ht="43.2">
       <c r="A963">
         <v>5203</v>
       </c>
@@ -67277,7 +67275,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="964" spans="1:35">
+    <row r="964" spans="1:35" ht="43.2">
       <c r="A964">
         <v>5204</v>
       </c>
@@ -67342,7 +67340,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="965" spans="1:35">
+    <row r="965" spans="1:35" ht="43.2">
       <c r="A965">
         <v>5205</v>
       </c>
@@ -67407,7 +67405,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="966" spans="1:35">
+    <row r="966" spans="1:35" ht="43.2">
       <c r="A966">
         <v>5206</v>
       </c>
@@ -67472,7 +67470,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="967" spans="1:35">
+    <row r="967" spans="1:35" ht="43.2">
       <c r="A967">
         <v>5207</v>
       </c>
@@ -67537,7 +67535,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="968" spans="1:35">
+    <row r="968" spans="1:35" ht="43.2">
       <c r="A968">
         <v>5208</v>
       </c>
@@ -67602,7 +67600,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="969" spans="1:35">
+    <row r="969" spans="1:35" ht="43.2">
       <c r="A969">
         <v>5209</v>
       </c>
@@ -67667,7 +67665,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="970" spans="1:35">
+    <row r="970" spans="1:35" ht="43.2">
       <c r="A970">
         <v>5210</v>
       </c>
@@ -67732,7 +67730,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="971" spans="1:35">
+    <row r="971" spans="1:35" ht="43.2">
       <c r="A971">
         <v>5211</v>
       </c>
@@ -67797,7 +67795,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="972" spans="1:35">
+    <row r="972" spans="1:35" ht="43.2">
       <c r="A972">
         <v>5212</v>
       </c>
@@ -67862,7 +67860,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="973" spans="1:35">
+    <row r="973" spans="1:35" ht="43.2">
       <c r="A973">
         <v>5213</v>
       </c>
@@ -67927,7 +67925,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="974" spans="1:35">
+    <row r="974" spans="1:35" ht="43.2">
       <c r="A974">
         <v>5214</v>
       </c>
@@ -67992,7 +67990,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="975" spans="1:35">
+    <row r="975" spans="1:35" ht="43.2">
       <c r="A975">
         <v>5215</v>
       </c>
@@ -68057,7 +68055,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="976" spans="1:35">
+    <row r="976" spans="1:35" ht="43.2">
       <c r="A976">
         <v>5216</v>
       </c>
@@ -68122,7 +68120,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="977" spans="1:35">
+    <row r="977" spans="1:35" ht="43.2">
       <c r="A977">
         <v>5217</v>
       </c>
@@ -68187,7 +68185,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="978" spans="1:35">
+    <row r="978" spans="1:35" ht="43.2">
       <c r="A978">
         <v>5218</v>
       </c>
@@ -68252,7 +68250,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="979" spans="1:35">
+    <row r="979" spans="1:35" ht="43.2">
       <c r="A979">
         <v>5219</v>
       </c>
@@ -68317,7 +68315,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="980" spans="1:35">
+    <row r="980" spans="1:35" ht="43.2">
       <c r="A980">
         <v>5220</v>
       </c>
@@ -68382,7 +68380,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="981" spans="1:35">
+    <row r="981" spans="1:35" ht="43.2">
       <c r="A981">
         <v>5221</v>
       </c>
@@ -68447,7 +68445,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="982" spans="1:35">
+    <row r="982" spans="1:35" ht="43.2">
       <c r="A982">
         <v>5222</v>
       </c>
@@ -68512,7 +68510,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="983" spans="1:35">
+    <row r="983" spans="1:35" ht="43.2">
       <c r="A983">
         <v>5223</v>
       </c>
@@ -68577,7 +68575,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="984" spans="1:35">
+    <row r="984" spans="1:35" ht="43.2">
       <c r="A984">
         <v>5224</v>
       </c>
@@ -68642,7 +68640,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="985" spans="1:35">
+    <row r="985" spans="1:35" ht="43.2">
       <c r="A985">
         <v>5225</v>
       </c>
@@ -68707,7 +68705,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="986" spans="1:35">
+    <row r="986" spans="1:35" ht="43.2">
       <c r="A986">
         <v>5226</v>
       </c>
@@ -68772,7 +68770,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="987" spans="1:35">
+    <row r="987" spans="1:35" ht="43.2">
       <c r="A987">
         <v>5227</v>
       </c>
@@ -68837,7 +68835,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="988" spans="1:35">
+    <row r="988" spans="1:35" ht="43.2">
       <c r="A988">
         <v>5228</v>
       </c>
@@ -68902,7 +68900,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="989" spans="1:35">
+    <row r="989" spans="1:35" ht="43.2">
       <c r="A989">
         <v>5229</v>
       </c>
@@ -68967,7 +68965,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="990" spans="1:35">
+    <row r="990" spans="1:35" ht="43.2">
       <c r="A990">
         <v>5230</v>
       </c>
@@ -69032,7 +69030,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="991" spans="1:35">
+    <row r="991" spans="1:35" ht="43.2">
       <c r="A991">
         <v>5231</v>
       </c>
@@ -69097,7 +69095,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="992" spans="1:35">
+    <row r="992" spans="1:35" ht="43.2">
       <c r="A992">
         <v>5232</v>
       </c>
@@ -69162,7 +69160,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="993" spans="1:35">
+    <row r="993" spans="1:35" ht="43.2">
       <c r="A993">
         <v>5233</v>
       </c>
@@ -69292,7 +69290,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="995" spans="1:35">
+    <row r="995" spans="1:35" ht="43.2">
       <c r="A995">
         <v>5235</v>
       </c>
@@ -69360,7 +69358,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="996" spans="1:35">
+    <row r="996" spans="1:35" ht="43.2">
       <c r="A996">
         <v>5236</v>
       </c>
@@ -69422,7 +69420,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="997" spans="1:35">
+    <row r="997" spans="1:35" ht="43.2">
       <c r="A997">
         <v>5237</v>
       </c>
@@ -69484,7 +69482,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="998" spans="1:35">
+    <row r="998" spans="1:35" ht="43.2">
       <c r="A998">
         <v>5238</v>
       </c>
@@ -69546,7 +69544,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="999" spans="1:35">
+    <row r="999" spans="1:35" ht="43.2">
       <c r="A999">
         <v>5239</v>
       </c>
@@ -69676,7 +69674,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="1001" spans="1:35">
+    <row r="1001" spans="1:35" ht="43.2">
       <c r="A1001">
         <v>5241</v>
       </c>
@@ -69744,7 +69742,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="1002" spans="1:35">
+    <row r="1002" spans="1:35" ht="43.2">
       <c r="A1002">
         <v>5242</v>
       </c>
@@ -70190,7 +70188,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="1009" spans="1:35">
+    <row r="1009" spans="1:35" ht="43.2">
       <c r="A1009">
         <v>5249</v>
       </c>
@@ -70258,7 +70256,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="1010" spans="1:35">
+    <row r="1010" spans="1:35" ht="43.2">
       <c r="A1010">
         <v>5250</v>
       </c>
@@ -72718,7 +72716,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="1049" spans="1:35">
+    <row r="1049" spans="1:35" ht="57.6">
       <c r="A1049">
         <v>5289</v>
       </c>
@@ -72786,7 +72784,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="1050" spans="1:35">
+    <row r="1050" spans="1:35" ht="57.6">
       <c r="A1050">
         <v>5290</v>
       </c>
@@ -72848,7 +72846,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="1051" spans="1:35">
+    <row r="1051" spans="1:35" ht="57.6">
       <c r="A1051">
         <v>5291</v>
       </c>
@@ -72910,7 +72908,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="1052" spans="1:35">
+    <row r="1052" spans="1:35" ht="57.6">
       <c r="A1052">
         <v>5292</v>
       </c>
